--- a/2021/northern_ireland.xlsx
+++ b/2021/northern_ireland.xlsx
@@ -600,7 +600,7 @@
         <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.25</v>
@@ -615,7 +615,7 @@
         <v>0.25</v>
       </c>
       <c r="N2">
-        <v>0.3235714285714286</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -644,7 +644,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3">
         <v>0.3</v>
@@ -665,7 +665,7 @@
         <v>0.5</v>
       </c>
       <c r="N3">
-        <v>0.315</v>
+        <v>0.2721428571428571</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -712,10 +712,10 @@
         <v>0.2</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.3076190476190477</v>
+        <v>0.2701190476190476</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>

--- a/2021/northern_ireland.xlsx
+++ b/2021/northern_ireland.xlsx
@@ -82,24 +82,24 @@
     <t>Ards and North Down Borough Council</t>
   </si>
   <si>
+    <t>Fermanagh and Omagh District Council</t>
+  </si>
+  <si>
     <t>Derry City and Strabane District Council</t>
   </si>
   <si>
-    <t>Fermanagh and Omagh District Council</t>
-  </si>
-  <si>
     <t>Belfast City Council</t>
   </si>
   <si>
     <t>Armagh City, Banbridge and Craigavon Borough Council</t>
   </si>
   <si>
+    <t>Antrim and Newtownabbey Borough Council</t>
+  </si>
+  <si>
     <t>Causeway Coast and Glens Borough Council</t>
   </si>
   <si>
-    <t>Antrim and Newtownabbey Borough Council</t>
-  </si>
-  <si>
     <t>Newry, Mourne and Down District Council</t>
   </si>
   <si>
@@ -115,22 +115,22 @@
     <t>AND</t>
   </si>
   <si>
+    <t>FMO</t>
+  </si>
+  <si>
     <t>DRS</t>
   </si>
   <si>
-    <t>FMO</t>
-  </si>
-  <si>
     <t>BFS</t>
   </si>
   <si>
     <t>ABC</t>
   </si>
   <si>
+    <t>ANN</t>
+  </si>
+  <si>
     <t>CCG</t>
-  </si>
-  <si>
-    <t>ANN</t>
   </si>
   <si>
     <t>NMD</t>
@@ -638,13 +638,13 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>0.4285714285714285</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G3">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H3">
         <v>0.3</v>
@@ -653,25 +653,25 @@
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2721428571428571</v>
+        <v>0.2701190476190476</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -688,40 +688,40 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0.1904761904761905</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F4">
-        <v>0.3888888888888889</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G4">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4">
         <v>0.3</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
-        <v>0.2701190476190476</v>
+        <v>0.2438095238095238</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -741,7 +741,7 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="F5">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G5">
         <v>0.2857142857142857</v>
@@ -750,7 +750,7 @@
         <v>0.3</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2380952380952381</v>
+        <v>0.2064285714285714</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
@@ -871,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -921,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:19">

--- a/2021/northern_ireland.xlsx
+++ b/2021/northern_ireland.xlsx
@@ -597,7 +597,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0.25</v>
       </c>
       <c r="N2">
-        <v>0.3035714285714285</v>
+        <v>0.3102380952380953</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -647,7 +647,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I3">
         <v>0.2</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2701190476190476</v>
+        <v>0.2751190476190477</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -697,7 +697,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0.5</v>
       </c>
       <c r="N4">
-        <v>0.2438095238095238</v>
+        <v>0.2488095238095238</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
@@ -747,7 +747,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H5">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I5">
         <v>0.2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2064285714285714</v>
+        <v>0.1947619047619047</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
